--- a/src/PantryDriveUp/static/DriveThruGroceryList.xlsx
+++ b/src/PantryDriveUp/static/DriveThruGroceryList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/PycharmProjects/PantryDriveUp/src/PantryDriveUp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1DA159-375F-624D-9C56-B1FED2DACD6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61554217-4812-0947-9479-60550AA5E1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="10920" windowWidth="36600" windowHeight="23660" xr2:uid="{F96EB8BB-7440-1045-A3CF-C8B12DE5BC1F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sections" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grocery List Items'!$B$1:$B$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grocery List Items'!$B$1:$B$146</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="165">
   <si>
     <t>Section</t>
   </si>
@@ -515,6 +515,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pre-packed bread &amp; pastries </t>
+  </si>
+  <si>
+    <t>Vegetable Oil</t>
+  </si>
+  <si>
+    <t>Canola Oil</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
   </si>
 </sst>
 </file>
@@ -890,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA129A4E-523C-1340-A76D-819C18D838D2}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1848,18 +1857,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B119" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B120" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1876,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1875,7 +1884,7 @@
         <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1883,7 +1892,7 @@
         <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1891,23 +1900,23 @@
         <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1924,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +1932,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1931,7 +1940,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1939,7 +1948,7 @@
         <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1947,7 +1956,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1955,7 +1964,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1963,7 +1972,7 @@
         <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1980,7 @@
         <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,47 +1988,47 @@
         <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>143</v>
+      <c r="B138" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +2036,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2035,7 +2044,7 @@
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2043,27 +2052,54 @@
         <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A378:A502" xr:uid="{9F230A1B-3176-7644-93D0-C46118A773BC}">
+      <formula1>$A$2:$A$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42E99367-0341-8047-8586-60B4DF461531}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{778B290A-D8DC-1946-819D-F17B2E30AB1B}">
           <x14:formula1>
-            <xm:f>Sections!$A$2:$A$28</xm:f>
+            <xm:f>Sections!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>A501:A506 A2:A500</xm:sqref>
+          <xm:sqref>A503:A508</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B41F0BF2-BB48-224D-B754-74F4E55BB195}">
+          <x14:formula1>
+            <xm:f>Sections!$A$2:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A377</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2073,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF99C9B-78AA-8547-AB14-04E53B0EB466}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,73 +2197,83 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState ref="A2:A28">
-    <sortCondition ref="A2:A28"/>
+  <sortState ref="A2:A29">
+    <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
